--- a/Documents/BOM_Team_Project-Twister_2.0.xlsx
+++ b/Documents/BOM_Team_Project-Twister_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthowest-my.sharepoint.com/personal/herber_geeraert_student_howest_be/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthowest-my.sharepoint.com/personal/jakob_soens_student_howest_be/Documents/Bureaublad/Team Project/Team-Project-Twister-2.0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DCBC93-0D12-4E22-A326-2ED23E78990D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C4DCBC93-0D12-4E22-A326-2ED23E78990D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D43ABC1B-4C2D-4EC1-B1C0-3A34B96EF5FA}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{E503B3C8-024A-4010-A83B-7FB600ACABE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E503B3C8-024A-4010-A83B-7FB600ACABE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,7 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
